--- a/작업 진척 상황.xlsx
+++ b/작업 진척 상황.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents_core\대학교\졸작\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_repositories\Graduate_Project\WA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87F0FC9-4452-4A1D-B15F-BF92951A1989}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E8C7CD-D712-44F7-9AEC-2EFB978A2DA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D671856-B11B-4C71-AF4F-7DDCD5945FD1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D671856-B11B-4C71-AF4F-7DDCD5945FD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -172,10 +172,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>임시 모델 적용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>위와 동시에 구현 중</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -241,6 +237,10 @@
   </si>
   <si>
     <t>프로토타입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시 모델 적용, 스테이지 변경 필요</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -390,6 +390,12 @@
     <xf numFmtId="9" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -406,12 +412,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -592,7 +592,7 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
@@ -1728,7 +1728,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1741,20 +1741,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="A1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -1767,12 +1767,12 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="7">
         <f>SUM(D3:D22) / COUNT(D3:D22)</f>
-        <v>0.34499999999999997</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -1785,8 +1785,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="7"/>
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -1798,8 +1798,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="7"/>
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -1811,8 +1811,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="7"/>
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -1821,8 +1821,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="7"/>
       <c r="C7" t="s">
         <v>5</v>
       </c>
@@ -1834,8 +1834,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="7"/>
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -1847,8 +1847,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="7"/>
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -1860,21 +1860,21 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="7"/>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="7"/>
       <c r="C11" t="s">
         <v>9</v>
       </c>
@@ -1883,8 +1883,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="7"/>
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -1893,8 +1893,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="7"/>
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -1903,8 +1903,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="7"/>
       <c r="C14" t="s">
         <v>10</v>
       </c>
@@ -1913,8 +1913,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="7"/>
       <c r="C15" t="s">
         <v>18</v>
       </c>
@@ -1926,8 +1926,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="7"/>
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -1935,12 +1935,12 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="7"/>
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -1948,12 +1948,12 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="7"/>
       <c r="C18" t="s">
         <v>21</v>
       </c>
@@ -1961,12 +1961,12 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="7"/>
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -1975,8 +1975,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="7"/>
       <c r="C20" t="s">
         <v>17</v>
       </c>
@@ -1985,8 +1985,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="7"/>
       <c r="C21" t="s">
         <v>13</v>
       </c>
@@ -1995,8 +1995,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="7"/>
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -2005,10 +2005,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="8">
         <f>SUM(D23:D26) / COUNT(D23:D26)</f>
         <v>0.23750000000000002</v>
       </c>
@@ -2019,12 +2019,12 @@
         <v>0.9</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="8"/>
       <c r="C24" t="s">
         <v>28</v>
       </c>
@@ -2033,52 +2033,52 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="8"/>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="1">
         <v>0.05</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="8"/>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="9">
         <f>SUM(D27:D32) / COUNT(D27:D32)</f>
         <v>0.22500000000000001</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="1">
         <v>0.9</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="7"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="9"/>
       <c r="C28" t="s">
         <v>26</v>
       </c>
@@ -2086,25 +2086,25 @@
         <v>0.2</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="7"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="9"/>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D29" s="1">
         <v>0.25</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="7"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="9"/>
       <c r="C30" t="s">
         <v>27</v>
       </c>
@@ -2112,24 +2112,24 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="7"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="9"/>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="7"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="9"/>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
@@ -2137,11 +2137,11 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="4">
         <f>SUM(B3:B32) / 3</f>
-        <v>0.26916666666666667</v>
+        <v>0.27583333333333332</v>
       </c>
     </row>
   </sheetData>

--- a/작업 진척 상황.xlsx
+++ b/작업 진척 상황.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents_core\대학교\졸작\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TS\Desktop\wa!\WA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87F0FC9-4452-4A1D-B15F-BF92951A1989}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67F9E3E-8BD9-4B0C-AE75-5E72EC8AAB5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D671856-B11B-4C71-AF4F-7DDCD5945FD1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>작업 목록</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -204,10 +204,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>기획 중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>UI: 표시할 내용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -241,6 +237,14 @@
   </si>
   <si>
     <t>프로토타입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획 완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨셉 이미지만 선정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -390,6 +394,12 @@
     <xf numFmtId="9" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -406,12 +416,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -637,10 +641,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.05</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.9</c:v>
@@ -1727,8 +1731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4322051-15F8-4CC9-8A74-B659B4FA1729}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1741,20 +1745,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="A1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -1767,10 +1771,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="7">
         <f>SUM(D3:D22) / COUNT(D3:D22)</f>
         <v>0.34499999999999997</v>
       </c>
@@ -1785,8 +1789,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="7"/>
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -1798,8 +1802,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="7"/>
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -1811,8 +1815,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="7"/>
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -1821,8 +1825,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="7"/>
       <c r="C7" t="s">
         <v>5</v>
       </c>
@@ -1834,8 +1838,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="7"/>
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -1847,8 +1851,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="7"/>
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -1860,8 +1864,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="7"/>
       <c r="C10" t="s">
         <v>8</v>
       </c>
@@ -1873,8 +1877,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="7"/>
       <c r="C11" t="s">
         <v>9</v>
       </c>
@@ -1883,8 +1887,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="7"/>
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -1893,8 +1897,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="7"/>
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -1903,8 +1907,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="7"/>
       <c r="C14" t="s">
         <v>10</v>
       </c>
@@ -1913,8 +1917,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="7"/>
       <c r="C15" t="s">
         <v>18</v>
       </c>
@@ -1926,8 +1930,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="7"/>
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -1939,8 +1943,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="7"/>
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -1952,8 +1956,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="7"/>
       <c r="C18" t="s">
         <v>21</v>
       </c>
@@ -1965,8 +1969,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="7"/>
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -1975,8 +1979,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="7"/>
       <c r="C20" t="s">
         <v>17</v>
       </c>
@@ -1985,8 +1989,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="7"/>
       <c r="C21" t="s">
         <v>13</v>
       </c>
@@ -1995,8 +1999,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="7"/>
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -2005,12 +2009,12 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="8">
         <f>SUM(D23:D26) / COUNT(D23:D26)</f>
-        <v>0.23750000000000002</v>
+        <v>0.54999999999999993</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
@@ -2023,8 +2027,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="8"/>
       <c r="C24" t="s">
         <v>28</v>
       </c>
@@ -2033,36 +2037,36 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="8"/>
       <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="8"/>
+      <c r="C26" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="E25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="6"/>
-      <c r="C26" t="s">
-        <v>44</v>
-      </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="9">
         <f>SUM(D27:D32) / COUNT(D27:D32)</f>
         <v>0.22500000000000001</v>
       </c>
@@ -2077,8 +2081,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="7"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="9"/>
       <c r="C28" t="s">
         <v>26</v>
       </c>
@@ -2090,21 +2094,21 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="7"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="9"/>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D29" s="1">
         <v>0.25</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="7"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="9"/>
       <c r="C30" t="s">
         <v>27</v>
       </c>
@@ -2116,20 +2120,20 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="7"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="9"/>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="7"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="9"/>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
@@ -2137,11 +2141,11 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="4">
         <f>SUM(B3:B32) / 3</f>
-        <v>0.26916666666666667</v>
+        <v>0.37333333333333329</v>
       </c>
     </row>
   </sheetData>

--- a/작업 진척 상황.xlsx
+++ b/작업 진척 상황.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_repositories\Graduate_Project\WA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TS\Desktop\wa!\WA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E8C7CD-D712-44F7-9AEC-2EFB978A2DA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CAA595-A2CB-464B-9D15-82F692404643}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D671856-B11B-4C71-AF4F-7DDCD5945FD1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D671856-B11B-4C71-AF4F-7DDCD5945FD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>작업 목록</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -132,10 +132,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>스테이지: 1스테이지 구조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>그래픽</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -148,10 +144,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>스테이지: 2스테이지 구조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>진행도</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -196,14 +188,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>기획 내용 없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획 중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>UI: 표시할 내용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -241,6 +225,46 @@
   </si>
   <si>
     <t>임시 모델 적용, 스테이지 변경 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획 완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨셉 확정, 지속적 피드백</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업 진행 중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨디자인: 1스테이지 구조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨디자인: 2스테이지 구조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 퍼즐 완료, 지속적으로 추가 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨텐츠: 퍼즐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기 룸만 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨텐츠: 장애물</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템: 캐릭터</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -468,9 +492,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$3:$C$32</c:f>
+              <c:f>Sheet1!$C$3:$C$35</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>오브젝트: 밀 수 있는 박스</c:v>
                 </c:pt>
@@ -532,33 +556,42 @@
                   <c:v>적 캐릭터: 인공지능</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>스테이지: 1스테이지 구조</c:v>
+                  <c:v>레벨디자인: 1스테이지 구조</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>스테이지: 2스테이지 구조</c:v>
+                  <c:v>레벨디자인: 2스테이지 구조</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>시스템: 캐릭터</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>컨텐츠: 퍼즐</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>컨텐츠: 장애물</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>UI: 표시할 내용</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>UI: 디자인</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>캐릭터 컨셉 디자인</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>캐릭터 모델링</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>타이틀 로고 디자인</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="30">
                   <c:v>UI</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>배경 원화 디자인</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
                   <c:v>스카이박스 디자인</c:v>
                 </c:pt>
               </c:strCache>
@@ -566,10 +599,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$32</c:f>
+              <c:f>Sheet1!$D$3:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0.3</c:v>
                 </c:pt>
@@ -634,30 +667,39 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1399,7 +1441,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>716</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1725,10 +1767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4322051-15F8-4CC9-8A74-B659B4FA1729}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1737,12 +1779,12 @@
     <col min="2" max="2" width="6.625" customWidth="1"/>
     <col min="3" max="3" width="32.625" customWidth="1"/>
     <col min="4" max="4" width="6.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="5" max="5" width="37.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1754,16 +1796,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1781,7 +1823,7 @@
         <v>0.3</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1794,7 +1836,7 @@
         <v>0.9</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1807,7 +1849,7 @@
         <v>0.9</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1830,7 +1872,7 @@
         <v>0.9</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1843,7 +1885,7 @@
         <v>0.9</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1856,7 +1898,7 @@
         <v>0.9</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1869,7 +1911,7 @@
         <v>0.5</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1922,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1935,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1948,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1961,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2009,120 +2051,120 @@
         <v>23</v>
       </c>
       <c r="B23" s="8">
-        <f>SUM(D23:D26) / COUNT(D23:D26)</f>
-        <v>0.23750000000000002</v>
+        <f>SUM(D23:D29) / COUNT(D23:D29)</f>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D23" s="1">
         <v>0.9</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="8"/>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="8"/>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D25" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="E25" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="8"/>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="8"/>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="1">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="9">
-        <f>SUM(D27:D32) / COUNT(D27:D32)</f>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="C27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="E27" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="8"/>
+      <c r="C28" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="9"/>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
       <c r="D28" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="8"/>
+      <c r="C29" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="9"/>
-      <c r="C29" t="s">
-        <v>48</v>
-      </c>
       <c r="D29" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E29" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
-      <c r="B30" s="9"/>
+      <c r="A30" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="9">
+        <f>SUM(D30:D35) / COUNT(D30:D35)</f>
+        <v>0.26666666666666666</v>
+      </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="12"/>
       <c r="B31" s="9"/>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>0.2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -2132,27 +2174,63 @@
         <v>44</v>
       </c>
       <c r="D32" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="12"/>
+      <c r="B33" s="9"/>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="12"/>
+      <c r="B34" s="9"/>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="4">
-        <f>SUM(B3:B32) / 3</f>
-        <v>0.27583333333333332</v>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="12"/>
+      <c r="B35" s="9"/>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="4">
+        <f>SUM(B3:B35) / 3</f>
+        <v>0.40103174603174602</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B3:B22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="B30:B35"/>
     <mergeCell ref="A3:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="A30:A35"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D2:D1048576">

--- a/작업 진척 상황.xlsx
+++ b/작업 진척 상황.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TS\Desktop\wa!\WA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WA-LZenos\WA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CAA595-A2CB-464B-9D15-82F692404643}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D427B7F0-ACCE-4A4B-AEC5-CDD7FB9EDA87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D671856-B11B-4C71-AF4F-7DDCD5945FD1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>작업 목록</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>오브젝트: 문</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>매니저: 스테이지 초기화</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -136,14 +132,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터 모델링</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>진행도</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -152,22 +140,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>기본적인 기능만 구현됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>모델 적용 필요</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>구현 중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>위와 동시에 구현 중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>잠정적으로 기획됨</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -176,10 +152,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터 컨셉 디자인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>캐릭터 스토리 작성 중</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -196,14 +168,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>스카이박스 디자인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배경 원화 디자인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>진행도</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -212,10 +176,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>타이틀 로고 디자인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>디자인 중</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -256,15 +216,71 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>초기 룸만 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>컨텐츠: 장애물</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>시스템: 캐릭터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트: 문 (경로 방해)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트: 문 (룸 이동)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 없을 것으로 보여 보류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트: 회전하는 발판</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규 기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트: 가시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트: 레이저</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그 수정 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터: 컨셉 디자인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터: 모델링</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터: 텍스쳐링</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI: 타이틀 로고 디자인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI: 인게임 UI 디자인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경: 원화 디자인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경: 스카이박스 디자인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -492,9 +508,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$3:$C$35</c:f>
+              <c:f>Sheet1!$C$3:$C$40</c:f>
               <c:strCache>
-                <c:ptCount val="33"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>오브젝트: 밀 수 있는 박스</c:v>
                 </c:pt>
@@ -517,94 +533,109 @@
                   <c:v>오브젝트: 움직이는 발판</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>오브젝트: 문</c:v>
+                  <c:v>오브젝트: 문 (경로 방해)</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>오브젝트: 문 (룸 이동)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>오브젝트: 회전하는 발판</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>오브젝트: 가시</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>오브젝트: 레이저</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>매니저: 스테이지 초기화</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>캐릭터: 기능(이동, 특수 능력)</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>캐릭터: 모델 적용</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>캐릭터: 애니메이션</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>카메라: 캐릭터와 분리</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>카메라: 벽 투과 효과</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>카메라: 이동 효과</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>카메라: 연출</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>적 캐릭터: 기능</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>적 캐릭터: 모델 적용</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>적 캐릭터: 애니메이션</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="23">
                   <c:v>적 캐릭터: 인공지능</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
                   <c:v>레벨디자인: 1스테이지 구조</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="25">
                   <c:v>레벨디자인: 2스테이지 구조</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="26">
                   <c:v>시스템: 캐릭터</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="27">
                   <c:v>컨텐츠: 퍼즐</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="28">
                   <c:v>컨텐츠: 장애물</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="29">
                   <c:v>UI: 표시할 내용</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="30">
                   <c:v>UI: 디자인</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>캐릭터 컨셉 디자인</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>캐릭터 모델링</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>타이틀 로고 디자인</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>UI</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>배경 원화 디자인</c:v>
+                  <c:v>캐릭터: 컨셉 디자인</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>스카이박스 디자인</c:v>
+                  <c:v>캐릭터: 모델링</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>캐릭터: 텍스쳐링</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>UI: 타이틀 로고 디자인</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>UI: 인게임 UI 디자인</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>배경: 원화 디자인</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>배경: 스카이박스 디자인</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$35</c:f>
+              <c:f>Sheet1!$D$3:$D$40</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.9</c:v>
@@ -625,13 +656,13 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -640,10 +671,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -652,54 +683,69 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="27">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="29">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="30">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="31">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="32">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="34">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="35">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="36">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="37">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1441,7 +1487,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>716</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1767,10 +1813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4322051-15F8-4CC9-8A74-B659B4FA1729}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1784,7 +1830,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1793,37 +1839,37 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="7">
-        <f>SUM(D3:D22) / COUNT(D3:D22)</f>
-        <v>0.36499999999999999</v>
+        <f>SUM(D3:D26) / COUNT(D3:D26)</f>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1836,7 +1882,7 @@
         <v>0.9</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1849,7 +1895,7 @@
         <v>0.9</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1872,7 +1918,7 @@
         <v>0.9</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1885,7 +1931,7 @@
         <v>0.9</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1898,339 +1944,389 @@
         <v>0.9</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="7"/>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="7"/>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="7"/>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="7"/>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="7"/>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="7"/>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="7"/>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="7"/>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="7"/>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="7"/>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="7"/>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="7"/>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="7"/>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="8">
-        <f>SUM(D23:D29) / COUNT(D23:D29)</f>
-        <v>0.5714285714285714</v>
-      </c>
+      <c r="A23" s="10"/>
+      <c r="B23" s="7"/>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="7"/>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="7"/>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="7"/>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="8">
+        <f>SUM(D27:D33) / COUNT(D27:D33)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="1">
         <v>0.9</v>
       </c>
-      <c r="E23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="8"/>
-      <c r="C24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="8"/>
-      <c r="C25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="8"/>
-      <c r="C26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="8"/>
-      <c r="C27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
+      <c r="E27" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="8"/>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>48</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="8"/>
       <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="8"/>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+      <c r="B31" s="8"/>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="8"/>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="8"/>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E33" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="9">
-        <f>SUM(D30:D35) / COUNT(D30:D35)</f>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="C30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="1">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="9">
+        <f>SUM(D34:D40) / COUNT(D34:D40)</f>
+        <v>0.32857142857142857</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="1">
         <v>0.9</v>
       </c>
-      <c r="E30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
-      <c r="B31" s="9"/>
-      <c r="C31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="9"/>
-      <c r="C32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="9"/>
-      <c r="C33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
-      <c r="B34" s="9"/>
-      <c r="C34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0</v>
+      <c r="E34" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
       <c r="B35" s="9"/>
       <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="12"/>
+      <c r="B36" s="9"/>
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="12"/>
+      <c r="B37" s="9"/>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="12"/>
+      <c r="B38" s="9"/>
+      <c r="C38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E38" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="1">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="12"/>
+      <c r="B39" s="9"/>
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="4">
-        <f>SUM(B3:B35) / 3</f>
-        <v>0.40103174603174602</v>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
+      <c r="B40" s="9"/>
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="4">
+        <f>SUM(B3:B40) / 3</f>
+        <v>0.46051587301587299</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:B22"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="A3:A22"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="B3:B26"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="B34:B40"/>
+    <mergeCell ref="A3:A26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="A34:A40"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D2:D1048576">

--- a/작업 진척 상황.xlsx
+++ b/작업 진척 상황.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WA-LZenos\WA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D427B7F0-ACCE-4A4B-AEC5-CDD7FB9EDA87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D96AEF-DDC5-41D0-85D5-B82BC6EE30CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D671856-B11B-4C71-AF4F-7DDCD5945FD1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t>작업 목록</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -281,6 +281,10 @@
   </si>
   <si>
     <t>배경: 스카이박스 디자인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최적화, 모델 적용 필요</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -665,10 +669,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
@@ -677,7 +681,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -1816,7 +1820,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1860,7 +1864,7 @@
       </c>
       <c r="B3" s="7">
         <f>SUM(D3:D26) / COUNT(D3:D26)</f>
-        <v>0.39583333333333331</v>
+        <v>0.46666666666666673</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -1990,10 +1994,10 @@
         <v>52</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2003,10 +2007,10 @@
         <v>53</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2036,7 +2040,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2315,7 +2319,7 @@
       </c>
       <c r="B41" s="4">
         <f>SUM(B3:B40) / 3</f>
-        <v>0.46051587301587299</v>
+        <v>0.48412698412698413</v>
       </c>
     </row>
   </sheetData>

--- a/작업 진척 상황.xlsx
+++ b/작업 진척 상황.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WA-LZenos\WA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_repositories\Graduate_Project\WA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D96AEF-DDC5-41D0-85D5-B82BC6EE30CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D601AC34-4B33-4D3F-9283-58BC849ACB32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D671856-B11B-4C71-AF4F-7DDCD5945FD1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>작업 목록</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -184,10 +184,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>임시 모델 적용, 스테이지 변경 필요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>기획 완료</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -252,10 +248,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>버그 수정 필요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>캐릭터: 컨셉 디자인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -285,6 +277,10 @@
   </si>
   <si>
     <t>최적화, 모델 적용 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델 적용 필요</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -639,7 +635,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.9</c:v>
@@ -648,7 +644,7 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.9</c:v>
@@ -660,10 +656,10 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1820,7 +1816,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1864,16 +1860,16 @@
       </c>
       <c r="B3" s="7">
         <f>SUM(D3:D26) / COUNT(D3:D26)</f>
-        <v>0.46666666666666673</v>
+        <v>0.57500000000000007</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1909,7 +1905,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>0.9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1955,43 +1954,46 @@
       <c r="A10" s="10"/>
       <c r="B10" s="7"/>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>0.9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="7"/>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="1">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="7"/>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="7"/>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="1">
         <v>0.9</v>
@@ -2004,13 +2006,13 @@
       <c r="A14" s="10"/>
       <c r="B14" s="7"/>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="1">
         <v>0.7</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2073,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -2148,7 +2150,7 @@
         <v>0.65714285714285714</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" s="1">
         <v>0.9</v>
@@ -2161,7 +2163,7 @@
       <c r="A28" s="11"/>
       <c r="B28" s="8"/>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="1">
         <v>0.7</v>
@@ -2171,7 +2173,7 @@
       <c r="A29" s="11"/>
       <c r="B29" s="8"/>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -2181,20 +2183,20 @@
       <c r="A30" s="11"/>
       <c r="B30" s="8"/>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" s="1">
         <v>0.5</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="8"/>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -2210,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -2223,7 +2225,7 @@
         <v>0.5</v>
       </c>
       <c r="E33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -2235,7 +2237,7 @@
         <v>0.32857142857142857</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D34" s="1">
         <v>0.9</v>
@@ -2248,7 +2250,7 @@
       <c r="A35" s="12"/>
       <c r="B35" s="9"/>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D35" s="1">
         <v>0.7</v>
@@ -2261,7 +2263,7 @@
       <c r="A36" s="12"/>
       <c r="B36" s="9"/>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D36" s="1">
         <v>0.2</v>
@@ -2271,7 +2273,7 @@
       <c r="A37" s="12"/>
       <c r="B37" s="9"/>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D37" s="1">
         <v>0.25</v>
@@ -2284,20 +2286,20 @@
       <c r="A38" s="12"/>
       <c r="B38" s="9"/>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D38" s="1">
         <v>0.25</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="12"/>
       <c r="B39" s="9"/>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
@@ -2307,7 +2309,7 @@
       <c r="A40" s="12"/>
       <c r="B40" s="9"/>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
@@ -2319,7 +2321,7 @@
       </c>
       <c r="B41" s="4">
         <f>SUM(B3:B40) / 3</f>
-        <v>0.48412698412698413</v>
+        <v>0.52023809523809528</v>
       </c>
     </row>
   </sheetData>

--- a/작업 진척 상황.xlsx
+++ b/작업 진척 상황.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_repositories\Graduate_Project\WA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WA-LZenos\WA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D601AC34-4B33-4D3F-9283-58BC849ACB32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE69B2C9-9538-4BFC-B057-33AE816C2BAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D671856-B11B-4C71-AF4F-7DDCD5945FD1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>작업 목록</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -281,6 +281,18 @@
   </si>
   <si>
     <t>모델 적용 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트: 시점 변경 볼륨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트: 능력 획득 볼륨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트: 게이트 (레벨 이동)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -508,9 +520,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$3:$C$40</c:f>
+              <c:f>Sheet1!$C$3:$C$43</c:f>
               <c:strCache>
-                <c:ptCount val="38"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>오브젝트: 밀 수 있는 박스</c:v>
                 </c:pt>
@@ -539,90 +551,99 @@
                   <c:v>오브젝트: 문 (룸 이동)</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>오브젝트: 게이트 (레벨 이동)</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>오브젝트: 회전하는 발판</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>오브젝트: 가시</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>오브젝트: 레이저</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
+                  <c:v>오브젝트: 시점 변경 볼륨</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>오브젝트: 능력 획득 볼륨</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>매니저: 스테이지 초기화</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>캐릭터: 기능(이동, 특수 능력)</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>캐릭터: 모델 적용</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>캐릭터: 애니메이션</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>카메라: 캐릭터와 분리</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>카메라: 벽 투과 효과</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>카메라: 이동 효과</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>카메라: 연출</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>적 캐릭터: 기능</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>적 캐릭터: 모델 적용</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>적 캐릭터: 애니메이션</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>적 캐릭터: 인공지능</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>레벨디자인: 1스테이지 구조</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>레벨디자인: 2스테이지 구조</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>시스템: 캐릭터</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="30">
                   <c:v>컨텐츠: 퍼즐</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>컨텐츠: 장애물</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
                   <c:v>UI: 표시할 내용</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="33">
                   <c:v>UI: 디자인</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="34">
                   <c:v>캐릭터: 컨셉 디자인</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="35">
                   <c:v>캐릭터: 모델링</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="36">
                   <c:v>캐릭터: 텍스쳐링</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="37">
                   <c:v>UI: 타이틀 로고 디자인</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="38">
                   <c:v>UI: 인게임 UI 디자인</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="39">
                   <c:v>배경: 원화 디자인</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="40">
                   <c:v>배경: 스카이박스 디자인</c:v>
                 </c:pt>
               </c:strCache>
@@ -630,10 +651,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$40</c:f>
+              <c:f>Sheet1!$D$3:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0.9</c:v>
                 </c:pt>
@@ -665,40 +686,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -707,19 +728,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1</c:v>
@@ -728,24 +749,33 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="35">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="36">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="37">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="38">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="39">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1487,7 +1517,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>716</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1813,10 +1843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4322051-15F8-4CC9-8A74-B659B4FA1729}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1859,8 +1889,8 @@
         <v>21</v>
       </c>
       <c r="B3" s="7">
-        <f>SUM(D3:D26) / COUNT(D3:D26)</f>
-        <v>0.57500000000000007</v>
+        <f>SUM(D3:D29) / COUNT(D3:D29)</f>
+        <v>0.54814814814814816</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -1980,56 +2010,56 @@
       <c r="A12" s="10"/>
       <c r="B12" s="7"/>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="7"/>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13" s="1">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="7"/>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="7"/>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0.7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="7"/>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -2039,27 +2069,27 @@
       <c r="A17" s="10"/>
       <c r="B17" s="7"/>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="D17" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="7"/>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="7"/>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -2069,270 +2099,300 @@
       <c r="A20" s="10"/>
       <c r="B20" s="7"/>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>48</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="7"/>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="7"/>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="7"/>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="7"/>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="7"/>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="7"/>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="7"/>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="7"/>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="7"/>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="8">
-        <f>SUM(D27:D33) / COUNT(D27:D33)</f>
+      <c r="B30" s="8">
+        <f>SUM(D30:D36) / COUNT(D30:D36)</f>
         <v>0.65714285714285714</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C30" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D30" s="1">
         <v>0.9</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E30" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="8"/>
-      <c r="C28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="8"/>
-      <c r="C29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="8"/>
-      <c r="C30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E30" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="8"/>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="8"/>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="8"/>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D33" s="1">
         <v>0.5</v>
       </c>
       <c r="E33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="8"/>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="8"/>
+      <c r="C35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
+      <c r="B36" s="8"/>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="9">
-        <f>SUM(D34:D40) / COUNT(D34:D40)</f>
+      <c r="B37" s="9">
+        <f>SUM(D37:D43) / COUNT(D37:D43)</f>
         <v>0.32857142857142857</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C37" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D37" s="1">
         <v>0.9</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E37" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
-      <c r="B35" s="9"/>
-      <c r="C35" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="E35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
-      <c r="B36" s="9"/>
-      <c r="C36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
-      <c r="B37" s="9"/>
-      <c r="C37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E37" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="12"/>
       <c r="B38" s="9"/>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D38" s="1">
-        <v>0.25</v>
+        <v>0.7</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="12"/>
       <c r="B39" s="9"/>
       <c r="C39" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
       <c r="B40" s="9"/>
       <c r="C40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="12"/>
+      <c r="B41" s="9"/>
+      <c r="C41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="12"/>
+      <c r="B42" s="9"/>
+      <c r="C42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="12"/>
+      <c r="B43" s="9"/>
+      <c r="C43" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D43" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="4">
-        <f>SUM(B3:B40) / 3</f>
-        <v>0.52023809523809528</v>
+      <c r="B44" s="4">
+        <f>SUM(B3:B43) / 3</f>
+        <v>0.51128747795414464</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:B26"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="B34:B40"/>
-    <mergeCell ref="A3:A26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B3:B29"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="A3:A29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A37:A43"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D2:D1048576">

--- a/작업 진척 상황.xlsx
+++ b/작업 진척 상황.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WA-LZenos\WA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE69B2C9-9538-4BFC-B057-33AE816C2BAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D3F185-B5A8-4963-893C-1D961F23619B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D671856-B11B-4C71-AF4F-7DDCD5945FD1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
   <si>
     <t>작업 목록</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>매니저: 스테이지 초기화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>캐릭터: 애니메이션</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -108,18 +104,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>카메라: 벽 투과 효과</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>카메라: 이동 효과</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>카메라: 연출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>프로그래밍</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -144,30 +132,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>잠정적으로 기획됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트 구현 후 적용하면 플레이 가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 스토리 작성 중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 형체만 구성됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI: 표시할 내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI: 디자인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>진행도</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -176,26 +140,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>디자인 중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>프로토타입</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>기획 완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>컨셉 확정, 지속적 피드백</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작업 진행 중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>레벨디자인: 1스테이지 구조</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -204,10 +152,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>기본 퍼즐 완료, 지속적으로 추가 필요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>컨텐츠: 퍼즐</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -228,18 +172,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>필요 없을 것으로 보여 보류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>오브젝트: 회전하는 발판</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>신규 기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>오브젝트: 가시</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -293,6 +229,134 @@
   </si>
   <si>
     <t>오브젝트: 게이트 (레벨 이동)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라: 능력 획득 연출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI: 타이틀 화면 및 연출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI: 세이브 파일 선택 화면 및 연출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI: 인게임 UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI: 스테이지 이동 연출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI: 게임 스토리 전달</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매니저: 룸 초기화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매니저: 다른 룸 비활성화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그 수정 중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매니저: 게임 저장 및 불러오기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI: 상호작용 UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect: 파티클 적용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect: 효과음 적용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect: 배경음 적용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI: 캐릭터 사망 연출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI: 튜토리얼 및 시놉시스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터: 리깅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI: 상호작용 UI 디자인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI: 게임 내 스토리 콘티</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI: 게임 내 스토리 만화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템: 데이터 저장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨텐츠: 보스 전투</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리: 세계관 및 컨셉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리: 스토리 플롯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리: 등장인물 설정 및 관계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨텐츠: 필요 리소스 목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI: 튜토리얼 방식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI: 시놉시스 연출 방식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI: 인게임 화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI: 인게임 연출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추후 추가 가능, 효과 기획 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 모델 적용 필요, 버그 수정 필요</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -520,9 +584,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$3:$C$43</c:f>
+              <c:f>Sheet1!$C$3:$C$70</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>오브젝트: 밀 수 있는 박스</c:v>
                 </c:pt>
@@ -569,81 +633,162 @@
                   <c:v>오브젝트: 능력 획득 볼륨</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>매니저: 스테이지 초기화</c:v>
+                  <c:v>매니저: 룸 초기화</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>매니저: 다른 룸 비활성화</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>매니저: 게임 저장 및 불러오기</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>캐릭터: 기능(이동, 특수 능력)</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>캐릭터: 모델 적용</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>캐릭터: 애니메이션</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>카메라: 캐릭터와 분리</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>카메라: 벽 투과 효과</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>카메라: 이동 효과</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>카메라: 연출</c:v>
-                </c:pt>
                 <c:pt idx="23">
+                  <c:v>카메라: 능력 획득 연출</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>UI: 타이틀 화면 및 연출</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>UI: 세이브 파일 선택 화면 및 연출</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>UI: 튜토리얼 및 시놉시스</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>UI: 인게임 UI</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>UI: 상호작용 UI</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>UI: 스테이지 이동 연출</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>UI: 게임 스토리 전달</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>UI: 캐릭터 사망 연출</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Effect: 파티클 적용</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Effect: 효과음 적용</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Effect: 배경음 적용</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>적 캐릭터: 기능</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="36">
                   <c:v>적 캐릭터: 모델 적용</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="37">
                   <c:v>적 캐릭터: 애니메이션</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="38">
                   <c:v>적 캐릭터: 인공지능</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="39">
                   <c:v>레벨디자인: 1스테이지 구조</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="40">
                   <c:v>레벨디자인: 2스테이지 구조</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="41">
                   <c:v>시스템: 캐릭터</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="42">
+                  <c:v>시스템: 데이터 저장</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>컨텐츠: 퍼즐</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="44">
                   <c:v>컨텐츠: 장애물</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>UI: 표시할 내용</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>UI: 디자인</c:v>
-                </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="45">
+                  <c:v>컨텐츠: 보스 전투</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>컨텐츠: 필요 리소스 목록</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>UI: 타이틀 화면 및 연출</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>UI: 세이브 파일 선택 화면 및 연출</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>UI: 튜토리얼 방식</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>UI: 시놉시스 연출 방식</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>UI: 인게임 화면</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>UI: 인게임 연출</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>UI: 스테이지 이동 연출</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>스토리: 세계관 및 컨셉</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>스토리: 스토리 플롯</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>스토리: 등장인물 설정 및 관계</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>캐릭터: 컨셉 디자인</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="58">
                   <c:v>캐릭터: 모델링</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="59">
+                  <c:v>캐릭터: 리깅</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>캐릭터: 텍스쳐링</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="61">
                   <c:v>UI: 타이틀 로고 디자인</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="62">
                   <c:v>UI: 인게임 UI 디자인</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="63">
+                  <c:v>UI: 상호작용 UI 디자인</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>UI: 게임 내 스토리 콘티</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>UI: 게임 내 스토리 만화</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>배경: 원화 디자인</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="67">
                   <c:v>배경: 스카이박스 디자인</c:v>
                 </c:pt>
               </c:strCache>
@@ -651,12 +796,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$43</c:f>
+              <c:f>Sheet1!$D$3:$D$70</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
-                  <c:v>0.9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.9</c:v>
@@ -674,22 +819,22 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.9</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.7</c:v>
@@ -704,16 +849,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -722,7 +867,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -737,45 +882,126 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.9</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="47">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="58">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="60">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="61">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="62">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1517,7 +1743,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>716</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1843,10 +2069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4322051-15F8-4CC9-8A74-B659B4FA1729}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1860,7 +2086,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1869,37 +2095,34 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="7">
-        <f>SUM(D3:D29) / COUNT(D3:D29)</f>
-        <v>0.54814814814814816</v>
+        <f>SUM(D3:D41) / COUNT(D3:D41)</f>
+        <v>0.46923076923076923</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1912,7 +2135,7 @@
         <v>0.9</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1925,7 +2148,7 @@
         <v>0.9</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1938,7 +2161,7 @@
         <v>0.9</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1951,7 +2174,7 @@
         <v>0.9</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1964,7 +2187,7 @@
         <v>0.9</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1974,92 +2197,80 @@
         <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="7"/>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="7"/>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="7"/>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="7"/>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>50</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="7"/>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="7"/>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1">
         <v>0.7</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="7"/>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -2069,7 +2280,7 @@
       <c r="A17" s="10"/>
       <c r="B17" s="7"/>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -2079,7 +2290,7 @@
       <c r="A18" s="10"/>
       <c r="B18" s="7"/>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -2089,20 +2300,23 @@
       <c r="A19" s="10"/>
       <c r="B19" s="7"/>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="7"/>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -2112,37 +2326,34 @@
         <v>9</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="7"/>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="7"/>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="7"/>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -2152,20 +2363,17 @@
       <c r="A25" s="10"/>
       <c r="B25" s="7"/>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="7"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -2175,7 +2383,7 @@
       <c r="A27" s="10"/>
       <c r="B27" s="7"/>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -2185,7 +2393,7 @@
       <c r="A28" s="10"/>
       <c r="B28" s="7"/>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -2195,204 +2403,456 @@
       <c r="A29" s="10"/>
       <c r="B29" s="7"/>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="8">
-        <f>SUM(D30:D36) / COUNT(D30:D36)</f>
-        <v>0.65714285714285714</v>
-      </c>
+      <c r="A30" s="10"/>
+      <c r="B30" s="7"/>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D30" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="E30" t="s">
-        <v>28</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="8"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="7"/>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D31" s="1">
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="8"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="7"/>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="7"/>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D33" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E33" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="8"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="7"/>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="8"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="7"/>
       <c r="C35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="7"/>
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="7"/>
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="7"/>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="7"/>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="7"/>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="10"/>
+      <c r="B41" s="7"/>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="8">
+        <f>SUM(D42:D51) / COUNT(D42:D51)</f>
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="11"/>
+      <c r="B43" s="8"/>
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="11"/>
+      <c r="B44" s="8"/>
+      <c r="C44" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D44" s="1">
         <v>1</v>
       </c>
-      <c r="E35" t="s">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="11"/>
+      <c r="B45" s="8"/>
+      <c r="C45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="11"/>
+      <c r="B46" s="8"/>
+      <c r="C46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="11"/>
+      <c r="B47" s="8"/>
+      <c r="C47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="11"/>
+      <c r="B48" s="8"/>
+      <c r="C48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="11"/>
+      <c r="B49" s="8"/>
+      <c r="C49" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="11"/>
+      <c r="B50" s="8"/>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="11"/>
+      <c r="B51" s="8"/>
+      <c r="C51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="11"/>
+      <c r="B52" s="8"/>
+      <c r="C52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="11"/>
+      <c r="B53" s="8"/>
+      <c r="C53" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="11"/>
+      <c r="B54" s="8"/>
+      <c r="C54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="11"/>
+      <c r="B55" s="8"/>
+      <c r="C55" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="11"/>
+      <c r="B56" s="8"/>
+      <c r="C56" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="11"/>
+      <c r="B57" s="8"/>
+      <c r="C57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="11"/>
+      <c r="B58" s="8"/>
+      <c r="C58" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="11"/>
+      <c r="B59" s="8"/>
+      <c r="C59" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="9">
+        <f>SUM(D60:D70) / COUNT(D60:D70)</f>
+        <v>0.31363636363636366</v>
+      </c>
+      <c r="C60" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="8"/>
-      <c r="C36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="D60" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="12"/>
+      <c r="B61" s="9"/>
+      <c r="C61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="12"/>
+      <c r="B62" s="9"/>
+      <c r="C62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="12"/>
+      <c r="B63" s="9"/>
+      <c r="C63" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="12"/>
+      <c r="B64" s="9"/>
+      <c r="C64" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="12"/>
+      <c r="B65" s="9"/>
+      <c r="C65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" s="1">
         <v>0.5</v>
       </c>
-      <c r="E36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="9">
-        <f>SUM(D37:D43) / COUNT(D37:D43)</f>
-        <v>0.32857142857142857</v>
-      </c>
-      <c r="C37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="E37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
-      <c r="B38" s="9"/>
-      <c r="C38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="E38" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
-      <c r="B39" s="9"/>
-      <c r="C39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
-      <c r="B40" s="9"/>
-      <c r="C40" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E40" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="9"/>
-      <c r="C41" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
-      <c r="B42" s="9"/>
-      <c r="C42" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="1">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="12"/>
+      <c r="B66" s="9"/>
+      <c r="C66" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="12"/>
-      <c r="B43" s="9"/>
-      <c r="C43" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="1">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="12"/>
+      <c r="B67" s="9"/>
+      <c r="C67" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="4">
-        <f>SUM(B3:B43) / 3</f>
-        <v>0.51128747795414464</v>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="12"/>
+      <c r="B68" s="9"/>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="12"/>
+      <c r="B69" s="9"/>
+      <c r="C69" t="s">
+        <v>42</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="12"/>
+      <c r="B70" s="9"/>
+      <c r="C70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" s="4">
+        <f>SUM(B3:B70) / 3</f>
+        <v>0.49262237762237765</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:B29"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="A3:A29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="B3:B41"/>
+    <mergeCell ref="B60:B70"/>
+    <mergeCell ref="A3:A41"/>
+    <mergeCell ref="A60:A70"/>
+    <mergeCell ref="A42:A59"/>
+    <mergeCell ref="B42:B59"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D2:D1048576">

--- a/작업 진척 상황.xlsx
+++ b/작업 진척 상황.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WA-LZenos\WA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D3F185-B5A8-4963-893C-1D961F23619B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB96BD2-5BB9-4B77-BFAF-C289F11AC0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D671856-B11B-4C71-AF4F-7DDCD5945FD1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
   <si>
     <t>작업 목록</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -212,10 +212,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>최적화, 모델 적용 필요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>모델 적용 필요</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -264,10 +260,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>버그 수정 중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>매니저: 게임 저장 및 불러오기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -352,11 +344,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>추후 추가 가능, 효과 기획 필요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가 모델 적용 필요, 버그 수정 필요</t>
+    <t>나레이션 녹음 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추후 추가 가능</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -515,19 +507,19 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -816,7 +808,7 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -831,28 +823,28 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1</c:v>
@@ -870,16 +862,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.5</c:v>
@@ -888,10 +880,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
@@ -906,16 +898,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1</c:v>
@@ -927,40 +919,40 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.75</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.1</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.5</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
@@ -984,7 +976,7 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.25</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>0.5</c:v>
@@ -993,10 +985,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>0</c:v>
@@ -2071,8 +2063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4322051-15F8-4CC9-8A74-B659B4FA1729}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2111,12 +2103,12 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="7">
         <f>SUM(D3:D41) / COUNT(D3:D41)</f>
-        <v>0.46923076923076923</v>
+        <v>0.77435897435897438</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -2126,7 +2118,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="7"/>
       <c r="C4" t="s">
         <v>2</v>
@@ -2139,7 +2131,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="7"/>
       <c r="C5" t="s">
         <v>3</v>
@@ -2152,7 +2144,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="7"/>
       <c r="C6" t="s">
         <v>4</v>
@@ -2161,11 +2153,11 @@
         <v>0.9</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="C7" t="s">
         <v>5</v>
@@ -2178,20 +2170,17 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="7"/>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" t="s">
         <v>7</v>
@@ -2201,7 +2190,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" t="s">
         <v>32</v>
@@ -2211,7 +2200,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="7"/>
       <c r="C11" t="s">
         <v>33</v>
@@ -2221,106 +2210,97 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="C13" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="C14" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="C15" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="7"/>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="7"/>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="7"/>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="7"/>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="7"/>
       <c r="C21" t="s">
         <v>9</v>
@@ -2330,7 +2310,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="7"/>
       <c r="C22" t="s">
         <v>14</v>
@@ -2340,7 +2320,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="7"/>
       <c r="C23" t="s">
         <v>8</v>
@@ -2350,7 +2330,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="7"/>
       <c r="C24" t="s">
         <v>16</v>
@@ -2360,7 +2340,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="7"/>
       <c r="C25" t="s">
         <v>17</v>
@@ -2370,172 +2350,178 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="7"/>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="7"/>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="7"/>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="7"/>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="7"/>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30" s="1">
         <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="7"/>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="7"/>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="7"/>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="7"/>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="7"/>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
+      <c r="A36" s="9"/>
       <c r="B36" s="7"/>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="7"/>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
+      <c r="A38" s="9"/>
       <c r="B38" s="7"/>
       <c r="C38" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
+      <c r="A39" s="9"/>
       <c r="B39" s="7"/>
       <c r="C39" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
+      <c r="A40" s="9"/>
       <c r="B40" s="7"/>
       <c r="C40" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
+      <c r="A41" s="9"/>
       <c r="B41" s="7"/>
       <c r="C41" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="8">
-        <f>SUM(D42:D51) / COUNT(D42:D51)</f>
-        <v>0.69499999999999995</v>
+      <c r="B42" s="12">
+        <f>SUM(D42:D59) / COUNT(D42:D59)</f>
+        <v>0.77222222222222214</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
@@ -2546,7 +2532,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
-      <c r="B43" s="8"/>
+      <c r="B43" s="12"/>
       <c r="C43" t="s">
         <v>28</v>
       </c>
@@ -2556,7 +2542,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
-      <c r="B44" s="8"/>
+      <c r="B44" s="12"/>
       <c r="C44" t="s">
         <v>31</v>
       </c>
@@ -2566,105 +2552,105 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
-      <c r="B45" s="8"/>
+      <c r="B45" s="12"/>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D45" s="1">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="11"/>
-      <c r="B46" s="8"/>
+      <c r="B46" s="12"/>
       <c r="C46" t="s">
         <v>29</v>
       </c>
       <c r="D46" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
-      <c r="B47" s="8"/>
+      <c r="B47" s="12"/>
       <c r="C47" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
-      <c r="B48" s="8"/>
+      <c r="B48" s="12"/>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D48" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
-      <c r="B49" s="8"/>
+      <c r="B49" s="12"/>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D49" s="1">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
-      <c r="B50" s="8"/>
+      <c r="B50" s="12"/>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D50" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
-      <c r="B51" s="8"/>
+      <c r="B51" s="12"/>
       <c r="C51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D51" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
-      <c r="B52" s="8"/>
+      <c r="B52" s="12"/>
       <c r="C52" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
-      <c r="B53" s="8"/>
+      <c r="B53" s="12"/>
       <c r="C53" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
-      <c r="B54" s="8"/>
+      <c r="B54" s="12"/>
       <c r="C54" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D54" s="1">
         <v>0.7</v>
@@ -2672,29 +2658,29 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
-      <c r="B55" s="8"/>
+      <c r="B55" s="12"/>
       <c r="C55" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D55" s="1">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
-      <c r="B56" s="8"/>
+      <c r="B56" s="12"/>
       <c r="C56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D56" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
-      <c r="B57" s="8"/>
+      <c r="B57" s="12"/>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
@@ -2702,9 +2688,9 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="11"/>
-      <c r="B58" s="8"/>
+      <c r="B58" s="12"/>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
@@ -2712,21 +2698,21 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="11"/>
-      <c r="B59" s="8"/>
+      <c r="B59" s="12"/>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60" s="8">
         <f>SUM(D60:D70) / COUNT(D60:D70)</f>
-        <v>0.31363636363636366</v>
+        <v>0.5</v>
       </c>
       <c r="C60" t="s">
         <v>37</v>
@@ -2736,8 +2722,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="12"/>
-      <c r="B61" s="9"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="8"/>
       <c r="C61" t="s">
         <v>38</v>
       </c>
@@ -2746,18 +2732,18 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="12"/>
-      <c r="B62" s="9"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="8"/>
       <c r="C62" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D62" s="1">
         <v>0.7</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="12"/>
-      <c r="B63" s="9"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="8"/>
       <c r="C63" t="s">
         <v>39</v>
       </c>
@@ -2766,18 +2752,18 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="12"/>
-      <c r="B64" s="9"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="8"/>
       <c r="C64" t="s">
         <v>40</v>
       </c>
       <c r="D64" s="1">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="12"/>
-      <c r="B65" s="9"/>
+      <c r="A65" s="10"/>
+      <c r="B65" s="8"/>
       <c r="C65" t="s">
         <v>41</v>
       </c>
@@ -2786,38 +2772,38 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="12"/>
-      <c r="B66" s="9"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="8"/>
       <c r="C66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="12"/>
-      <c r="B67" s="9"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="8"/>
       <c r="C67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="12"/>
-      <c r="B68" s="9"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="8"/>
       <c r="C68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D68" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="12"/>
-      <c r="B69" s="9"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="8"/>
       <c r="C69" t="s">
         <v>42</v>
       </c>
@@ -2826,8 +2812,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="12"/>
-      <c r="B70" s="9"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="8"/>
       <c r="C70" t="s">
         <v>43</v>
       </c>
@@ -2841,7 +2827,7 @@
       </c>
       <c r="B71" s="4">
         <f>SUM(B3:B70) / 3</f>
-        <v>0.49262237762237765</v>
+        <v>0.68219373219373214</v>
       </c>
     </row>
   </sheetData>

--- a/작업 진척 상황.xlsx
+++ b/작업 진척 상황.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WA-LZenos\WA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB96BD2-5BB9-4B77-BFAF-C289F11AC0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043ADD23-3176-41C6-9A1C-5AB84E134796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D671856-B11B-4C71-AF4F-7DDCD5945FD1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
   <si>
     <t>작업 목록</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -349,6 +349,10 @@
   </si>
   <si>
     <t>추후 추가 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화 시스템 필요</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -796,10 +800,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.9</c:v>
@@ -850,10 +854,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1</c:v>
@@ -877,7 +881,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.8</c:v>
@@ -886,16 +890,16 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1</c:v>
@@ -955,10 +959,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>0</c:v>
@@ -970,7 +974,7 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>0.2</c:v>
@@ -982,7 +986,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>1</c:v>
@@ -2063,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4322051-15F8-4CC9-8A74-B659B4FA1729}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2108,7 +2112,7 @@
       </c>
       <c r="B3" s="7">
         <f>SUM(D3:D41) / COUNT(D3:D41)</f>
-        <v>0.77435897435897438</v>
+        <v>0.92820512820512824</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -2124,7 +2128,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>23</v>
@@ -2137,7 +2141,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
@@ -2316,7 +2320,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -2326,7 +2330,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -2409,7 +2413,7 @@
         <v>57</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -2434,6 +2438,9 @@
       <c r="D33" s="1">
         <v>0.5</v>
       </c>
+      <c r="E33" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
@@ -2442,7 +2449,7 @@
         <v>61</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -2452,7 +2459,7 @@
         <v>58</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -2462,7 +2469,7 @@
         <v>59</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -2472,7 +2479,7 @@
         <v>60</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -2521,7 +2528,7 @@
       </c>
       <c r="B42" s="12">
         <f>SUM(D42:D59) / COUNT(D42:D59)</f>
-        <v>0.77222222222222214</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
@@ -2683,7 +2690,7 @@
         <v>69</v>
       </c>
       <c r="D57" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -2693,7 +2700,7 @@
         <v>70</v>
       </c>
       <c r="D58" s="1">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -2712,7 +2719,7 @@
       </c>
       <c r="B60" s="8">
         <f>SUM(D60:D70) / COUNT(D60:D70)</f>
-        <v>0.5</v>
+        <v>0.61818181818181817</v>
       </c>
       <c r="C60" t="s">
         <v>37</v>
@@ -2738,7 +2745,7 @@
         <v>63</v>
       </c>
       <c r="D62" s="1">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -2778,7 +2785,7 @@
         <v>64</v>
       </c>
       <c r="D66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -2827,7 +2834,7 @@
       </c>
       <c r="B71" s="4">
         <f>SUM(B3:B70) / 3</f>
-        <v>0.68219373219373214</v>
+        <v>0.79324009324009326</v>
       </c>
     </row>
   </sheetData>
